--- a/Split_Test.xlsx
+++ b/Split_Test.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.724559733271599</v>
+        <v>2.248643514997196</v>
       </c>
       <c r="C2">
-        <v>39.30397758483887</v>
+        <v>14.15664984813602</v>
       </c>
       <c r="D2">
-        <v>9.25914421081543</v>
+        <v>2.346847152558102</v>
       </c>
       <c r="E2">
-        <v>1.6</v>
+        <v>13.78582802547771</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.60043608546257</v>
+        <v>2.177311642540544</v>
       </c>
       <c r="C3">
-        <v>45.76822938919067</v>
+        <v>19.71116853583685</v>
       </c>
       <c r="D3">
-        <v>2.039810490608216</v>
+        <v>2.233142180275765</v>
       </c>
       <c r="E3">
-        <v>7.7</v>
+        <v>17.98069267515924</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.542630100250244</v>
+        <v>2.160133154174183</v>
       </c>
       <c r="C4">
-        <v>48.11701021194458</v>
+        <v>21.12300903642216</v>
       </c>
       <c r="D4">
-        <v>1.794241881370545</v>
+        <v>2.199693803726488</v>
       </c>
       <c r="E4">
-        <v>31.9</v>
+        <v>20.00895700636943</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.469813710451126</v>
+        <v>2.145067200739552</v>
       </c>
       <c r="C5">
-        <v>57.04367904663086</v>
+        <v>21.98894933213987</v>
       </c>
       <c r="D5">
-        <v>1.677426481246948</v>
+        <v>2.184243080114863</v>
       </c>
       <c r="E5">
-        <v>46.15</v>
+        <v>20.6578423566879</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.411485773324966</v>
+        <v>2.13516542347207</v>
       </c>
       <c r="C6">
-        <v>61.64683961868286</v>
+        <v>22.46689474918375</v>
       </c>
       <c r="D6">
-        <v>1.551177763938904</v>
+        <v>2.179928760695609</v>
       </c>
       <c r="E6">
-        <v>55.35</v>
+        <v>20.58519108280255</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.37667470574379</v>
+        <v>2.128373567505264</v>
       </c>
       <c r="C7">
-        <v>63.3283031463623</v>
+        <v>23.16937317708577</v>
       </c>
       <c r="D7">
-        <v>1.442612707614899</v>
+        <v>2.16212292340151</v>
       </c>
       <c r="E7">
-        <v>60.9</v>
+        <v>21.88296178343949</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.318868863582611</v>
+        <v>2.119662822963275</v>
       </c>
       <c r="C8">
-        <v>67.02888288497925</v>
+        <v>24.16819344604671</v>
       </c>
       <c r="D8">
-        <v>1.382412970066071</v>
+        <v>2.161641852870868</v>
       </c>
       <c r="E8">
-        <v>64.25</v>
+        <v>21.89789012738854</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.307286220788956</v>
+        <v>2.110090351189543</v>
       </c>
       <c r="C9">
-        <v>67.23810386657715</v>
+        <v>25.11789621135649</v>
       </c>
       <c r="D9">
-        <v>1.35409345626831</v>
+        <v>2.153326588451483</v>
       </c>
       <c r="E9">
-        <v>66.2</v>
+        <v>22.2093949044586</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.281939861178398</v>
+        <v>2.107564356018446</v>
       </c>
       <c r="C10">
-        <v>67.95868864059449</v>
+        <v>25.01028560700276</v>
       </c>
       <c r="D10">
-        <v>1.303267753124237</v>
+        <v>2.143104294151258</v>
       </c>
       <c r="E10">
-        <v>67</v>
+        <v>23.03542993630574</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,16 +567,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.251041793823242</v>
+        <v>2.102890344171851</v>
       </c>
       <c r="C11">
-        <v>68.62067966461181</v>
+        <v>25.75710499516646</v>
       </c>
       <c r="D11">
-        <v>1.26840568780899</v>
+        <v>2.136537175193713</v>
       </c>
       <c r="E11">
-        <v>66.15000000000001</v>
+        <v>23.28523089171974</v>
       </c>
     </row>
   </sheetData>
